--- a/toramame-tools.xlsx
+++ b/toramame-tools.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\githubs\markdown-docx-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27993944-2849-4066-922E-F261BA012D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EEF4B2-1750-487A-A3A1-DA21B52654DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="errs" sheetId="2" r:id="rId1"/>
     <sheet name="start" sheetId="1" r:id="rId2"/>
     <sheet name="basic" sheetId="8" r:id="rId3"/>
-    <sheet name="demojs" sheetId="7" r:id="rId4"/>
-    <sheet name="guide" sheetId="6" r:id="rId5"/>
+    <sheet name="settings" sheetId="9" r:id="rId4"/>
+    <sheet name="demojs" sheetId="7" r:id="rId5"/>
+    <sheet name="guide" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="583">
   <si>
     <t>FLG</t>
   </si>
@@ -2222,6 +2223,400 @@
   <si>
     <t>\&lt;!-- word param useCheckBox ON --&gt;</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Docx Engine: Word Exe Path</t>
+  </si>
+  <si>
+    <t>Path: Docx Template</t>
+  </si>
+  <si>
+    <t>Docx Engine: Math Extension</t>
+  </si>
+  <si>
+    <t>Docx Engine: Debug</t>
+  </si>
+  <si>
+    <t>Docx Engine: Show Output Tab</t>
+  </si>
+  <si>
+    <t>Docx Engine: Is Over Write</t>
+  </si>
+  <si>
+    <t>Docx Engine: Is Open Word</t>
+  </si>
+  <si>
+    <t>Docx Engine: Enable Ppt</t>
+  </si>
+  <si>
+    <t>Docx Engine: Ppt Exe Path</t>
+  </si>
+  <si>
+    <t>Docx Engine: Is Open Ppt</t>
+  </si>
+  <si>
+    <t>docxのテンプレートファイルをフルパスで指定します。</t>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックすると、数式をレンダリングします。</t>
+    <rPh sb="8" eb="10">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックすると、デバッグ情報ファイルを出力します。 *.wd0, *.wd を出力します。</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド実行時に、Output Tabを表示します。</t>
+    <rPh sb="4" eb="7">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>docx またはpptxを上書きします。</t>
+    <rPh sb="13" eb="15">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>docxを出力した後に、起動する場合はwordのアプリケーションパスを指定します。</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックすると、docx出力時にファイルを起動します。</t>
+    <rPh sb="12" eb="15">
+      <t>シュツリョクジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pptxを出力した後に、起動する場合はpowerpoint のアプリケーションパスを指定します。</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックすると、pptx出力時にファイルを起動します。</t>
+    <rPh sb="12" eb="15">
+      <t>シュツリョクジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specify the full path of the docx template file.</t>
+  </si>
+  <si>
+    <t>If checked, the formula will be rendered.</t>
+  </si>
+  <si>
+    <t>If checked, a debug information file will be output. Output *.wd0, *.wd.</t>
+  </si>
+  <si>
+    <t>Displays the Output Tab when executing a command.</t>
+  </si>
+  <si>
+    <t>Overwrite docx or pptx.</t>
+  </si>
+  <si>
+    <t>If you want to start it after outputting the docx, specify the word application path.</t>
+  </si>
+  <si>
+    <t>If checked, the file will be started when docx is output.</t>
+  </si>
+  <si>
+    <t>If you want to start it after outputting pptx, specify the application path of PowerPoint.</t>
+  </si>
+  <si>
+    <t>If checked, the file will be started when outputting pptx.</t>
+  </si>
+  <si>
+    <t>PowerPoint First Convert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初めてのコンバート(PowerPoint)</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># これがプレゼンテーションタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>## これがスライドタイトル1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>## これがスライドタイトル2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vscodeの編集画面で、右クリック、`Convert to Pptx` を選択します。</t>
+    <rPh sb="7" eb="11">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>markdownファイルのあるフォルダに、 pptxファイルができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create the following file:</t>
+  </si>
+  <si>
+    <t># This is the presentation title</t>
+  </si>
+  <si>
+    <t>## This is slide title 1</t>
+  </si>
+  <si>
+    <t>## This is slide title 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##,3. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Item1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Item2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Item3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>On the vscode editing screen, right-click and select `Convert to Pptx`.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A pptx file will be created in the folder containing the markdown file.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`0.0.4` での機能です。</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this works on ver. `0.0.4`.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\&lt;!-- word param imageWidth `width`--&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`width`:  イメージの最大幅を指定します。A4サイズのばあい、５００くらいがページ幅になります。</t>
+    <rPh sb="15" eb="18">
+      <t>サイダイハバ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\&lt;!-- word param imageWidth 500--&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`width`: Specify the maximum width of the image. For A4 size, the page width is about 500.</t>
+  </si>
+  <si>
+    <t>:::</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:::note[Note]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;!-- pptx position 10,60,90,30 --&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;!-- pptx position 10,20,90,30 --&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment command(Pptx)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントコマンド(Pptx)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is commands for Pptx.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらはPptx用のコマンドです。</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\&lt;!-- ppt  position `x,y,w,h` --&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`x,y,w,h`:ポジション(x,y)と幅と高さ(w,h)を紙面に対する%で指定します。</t>
+    <rPh sb="21" eb="22">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シメン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`x,y,w,h`: Specify the position (x,y), width and height (w,h) as a percentage of the paper surface.</t>
+  </si>
+  <si>
+    <t>表と画像の前には、このコマンドを指定してください。文字を別の場所に表示するときも、このコマンドを指定します。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specify this command before tables and images. Also specify this command to display text in a different location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#####,0.6.0.1. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pptxを作成するときには、Onにします。</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set this to On when creating pptx.</t>
   </si>
 </sst>
 </file>
@@ -2768,10 +3163,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2799,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
@@ -2812,6 +3207,9 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -2825,6 +3223,9 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
@@ -2833,6 +3234,9 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -2841,6 +3245,9 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -2849,6 +3256,9 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
@@ -2860,10 +3270,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
         <v>12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -2871,10 +3281,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -2891,10 +3301,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
@@ -2902,10 +3312,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
@@ -2913,10 +3323,10 @@
         <v>42</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
@@ -2924,10 +3334,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
@@ -2935,10 +3345,10 @@
         <v>42</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
@@ -2946,10 +3356,10 @@
         <v>42</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
@@ -2966,10 +3376,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
@@ -2977,14 +3387,14 @@
         <v>20</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2993,34 +3403,34 @@
         <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
@@ -3028,10 +3438,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
@@ -3039,32 +3449,230 @@
         <v>35</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>62</v>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C66" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C68" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C72" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C77" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C79" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C81" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C83" t="s">
+        <v>570</v>
+      </c>
+      <c r="L83" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C85" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C86" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C87" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C88" s="4"/>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C89" t="s">
+        <v>569</v>
+      </c>
+      <c r="L89" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C90" s="4"/>
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C91" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C92" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C93" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C94" s="4"/>
+      <c r="L94" s="4"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C102" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C104" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B1048576" xr:uid="{219CEFF1-BD17-43DD-A45E-D5D188C298FB}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66:C84 D1:K84 C1:C2 A95:K1048576 A1:B84 C9:C64 A85:C94 L83 E85:L94" xr:uid="{219CEFF1-BD17-43DD-A45E-D5D188C298FB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3072,10 +3680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5185E9D-CFF6-4050-8355-FB5BAA2DF5F2}">
-  <dimension ref="A1:U262"/>
+  <dimension ref="A1:U292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="A280" sqref="A280:XFD282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5429,10 +6037,115 @@
         <v>414</v>
       </c>
     </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C264" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="K264" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C266" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="K266" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C269" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K269" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C271" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K271" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A277" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C277" t="s">
+        <v>571</v>
+      </c>
+      <c r="K277" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A280" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C280" s="2"/>
+      <c r="K280" s="2"/>
+      <c r="L280" s="2"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C281" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K281" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A282" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C282" s="2"/>
+      <c r="K282" s="2"/>
+      <c r="L282" s="2"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A285" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A288" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="290" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C290" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K290" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="292" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C292" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="K292" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 D58:J78 D1:J56 A58:B104 C79:K104 C7:C23 A1:B56 A115:J150 A153:J1048576" xr:uid="{559FDA0B-6EA0-4EF2-9261-1E0FB4516E1F}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 D58:J78 D1:J56 A58:B104 C79:K104 C7:C23 A1:B56 A115:J150 C153:C263 C265 C270 C272:C276 D153:J276 A153:B276 A278:J279 D280:K282 A280:B1048576 D283:J1048576 C281:C287 C289:C1048576" xr:uid="{559FDA0B-6EA0-4EF2-9261-1E0FB4516E1F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
@@ -5441,6 +6154,382 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F38FC82-B63A-46C5-B894-17E8BE4B29D9}">
+  <dimension ref="A1:L78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="8.796875" style="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>513</v>
+      </c>
+      <c r="K3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" t="s">
+        <v>298</v>
+      </c>
+      <c r="K4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>304</v>
+      </c>
+      <c r="K10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" t="s">
+        <v>514</v>
+      </c>
+      <c r="K17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C29" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C35" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C40" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C45" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C51" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C57" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C60" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C66" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C71" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C78" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 K3 C77:C1048576 C7:C20 D1:J58 C60:C61 D59:K61 D62:J1048576 A1:B1048576" xr:uid="{D94060C3-CAFC-46F2-AF77-65F8E8F9795A}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F8ECB1-837F-486A-B0A7-30D7B2774741}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M550"/>
@@ -10118,7 +11207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB3F8B3-28EF-42AD-BD4C-231D90A4555A}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M533"/>
